--- a/Supplementary_tables/supp.table13.xlsx
+++ b/Supplementary_tables/supp.table13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Downloads/Supplementary_tables_dbs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Documents/Arabidopsis_YAMAT_01202018/Manuscript_prep/RNA_Biology_submission/RR/Supp.figures/Supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B30B48-CAA1-E34E-B0D0-71D4631AE5C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C14FCF-D95D-4C41-B2E3-26A8AAF57F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="460" windowWidth="23040" windowHeight="11540" xr2:uid="{D42462CD-934F-D149-97F9-9F20123ABCE2}"/>
   </bookViews>
@@ -175,7 +175,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">Supp Table 12. </t>
+      <t xml:space="preserve">Supp Table 13. </t>
     </r>
     <r>
       <rPr>
@@ -563,7 +563,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
